--- a/Data_clean/MCAS/Estados_US/Edos_USA_2019/COLORADO_2019.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2019/COLORADO_2019.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1250"/>
+  <dimension ref="A1:D1244"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C8">
@@ -478,7 +478,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C9">
@@ -491,7 +491,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>San Francisco de los Romo</t>
+          <t>San Francisco De Los Romo</t>
         </is>
       </c>
       <c r="C10">
@@ -561,7 +561,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C15">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C31">
@@ -875,7 +875,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C38">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C41">
@@ -1200,7 +1200,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C63">
@@ -1213,7 +1213,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C64">
@@ -1459,7 +1459,7 @@
         <v>13</v>
       </c>
       <c r="D82">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="83">
@@ -1524,7 +1524,7 @@
         <v>13</v>
       </c>
       <c r="D87">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="88">
@@ -1647,7 +1647,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C97">
@@ -1790,7 +1790,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C108">
@@ -1829,7 +1829,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C111">
@@ -2154,7 +2154,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>San Francisco de Borja</t>
+          <t>San Francisco De Borja</t>
         </is>
       </c>
       <c r="C136">
@@ -2167,7 +2167,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>San Francisco de Conchos</t>
+          <t>San Francisco De Conchos</t>
         </is>
       </c>
       <c r="C137">
@@ -2180,7 +2180,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C138">
@@ -2200,7 +2200,7 @@
         <v>13</v>
       </c>
       <c r="D139">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="140">
@@ -2239,7 +2239,7 @@
         <v>13</v>
       </c>
       <c r="D142">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="143">
@@ -2284,7 +2284,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>Valle de Zaragoza</t>
+          <t>Valle De Zaragoza</t>
         </is>
       </c>
       <c r="C146">
@@ -2465,7 +2465,7 @@
         <v>13</v>
       </c>
       <c r="D159">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="160">
@@ -2504,7 +2504,7 @@
         <v>13</v>
       </c>
       <c r="D162">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="163">
@@ -2645,7 +2645,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C173">
@@ -2671,7 +2671,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
@@ -2728,7 +2728,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C179">
@@ -2928,7 +2928,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C194">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C208">
@@ -3162,7 +3162,7 @@
     <row r="212">
       <c r="B212" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C212">
@@ -3253,7 +3253,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C219">
@@ -3266,7 +3266,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C220">
@@ -3279,7 +3279,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C221">
@@ -3292,7 +3292,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C222">
@@ -3422,12 +3422,12 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C232">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C236">
@@ -3544,7 +3544,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C241">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C249">
@@ -3726,7 +3726,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C255">
@@ -3791,7 +3791,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C260">
@@ -3882,7 +3882,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C267">
@@ -3960,7 +3960,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C273">
@@ -3973,7 +3973,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C274">
@@ -3999,7 +3999,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C276">
@@ -4090,7 +4090,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C283">
@@ -4181,7 +4181,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C290">
@@ -4259,7 +4259,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C296">
@@ -4272,7 +4272,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C297">
@@ -4285,7 +4285,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C298">
@@ -4394,7 +4394,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C306">
@@ -4407,7 +4407,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C307">
@@ -4420,7 +4420,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C308">
@@ -4524,7 +4524,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C316">
@@ -4667,7 +4667,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C327">
@@ -4719,7 +4719,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C331">
@@ -4745,7 +4745,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C333">
@@ -4771,7 +4771,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C335">
@@ -4784,7 +4784,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C336">
@@ -4797,7 +4797,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C337">
@@ -4849,7 +4849,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C341">
@@ -4932,7 +4932,7 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C347">
@@ -4945,7 +4945,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C348">
@@ -4958,7 +4958,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C349">
@@ -5010,7 +5010,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Atlamajalcingo del Monte</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C353">
@@ -5036,7 +5036,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C355">
@@ -5049,7 +5049,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C356">
@@ -5088,7 +5088,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C359">
@@ -5101,7 +5101,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C360">
@@ -5114,20 +5114,20 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C361">
         <v>135</v>
       </c>
       <c r="D361">
-        <v>0.009682277845513877</v>
+        <v>0.009682277845513875</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C362">
@@ -5179,7 +5179,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C366">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C367">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C371">
@@ -5257,7 +5257,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C372">
@@ -5316,7 +5316,7 @@
         <v>13</v>
       </c>
       <c r="D376">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="377">
@@ -5335,20 +5335,20 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C378">
         <v>13</v>
       </c>
       <c r="D378">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C379">
@@ -5374,7 +5374,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C381">
@@ -5387,7 +5387,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C382">
@@ -5407,13 +5407,13 @@
         <v>13</v>
       </c>
       <c r="D383">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C384">
@@ -5433,7 +5433,7 @@
         <v>13</v>
       </c>
       <c r="D385">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="386">
@@ -5452,7 +5452,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C387">
@@ -5608,7 +5608,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C399">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C401">
@@ -5660,7 +5660,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C403">
@@ -5686,7 +5686,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C405">
@@ -5725,7 +5725,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C408">
@@ -5738,7 +5738,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C409">
@@ -5886,7 +5886,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Atotonilco de Tula</t>
+          <t>Atotonilco De Tula</t>
         </is>
       </c>
       <c r="C420">
@@ -5899,7 +5899,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C421">
@@ -5945,7 +5945,7 @@
         <v>13</v>
       </c>
       <c r="D424">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="425">
@@ -5964,7 +5964,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C426">
@@ -6055,7 +6055,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C433">
@@ -6107,7 +6107,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C437">
@@ -6120,7 +6120,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C438">
@@ -6133,7 +6133,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C439">
@@ -6185,7 +6185,7 @@
     <row r="443">
       <c r="B443" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C443">
@@ -6198,7 +6198,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C444">
@@ -6263,7 +6263,7 @@
     <row r="449">
       <c r="B449" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C449">
@@ -6315,7 +6315,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C453">
@@ -6328,7 +6328,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C454">
@@ -6341,7 +6341,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C455">
@@ -6411,7 +6411,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C460">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C461">
@@ -6489,7 +6489,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>Atemajac de Brizuela</t>
+          <t>Atemajac De Brizuela</t>
         </is>
       </c>
       <c r="C466">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C469">
@@ -6541,7 +6541,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C470">
@@ -6606,7 +6606,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C475">
@@ -6697,7 +6697,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C482">
@@ -6801,7 +6801,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C490">
@@ -6866,7 +6866,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C495">
@@ -6879,7 +6879,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C496">
@@ -6918,7 +6918,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C499">
@@ -6983,7 +6983,7 @@
     <row r="504">
       <c r="B504" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C504">
@@ -7074,7 +7074,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C511">
@@ -7139,7 +7139,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C516">
@@ -7152,7 +7152,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C517">
@@ -7165,7 +7165,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C518">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C520">
@@ -7217,7 +7217,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C522">
@@ -7230,7 +7230,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C523">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Santa María de los Ángeles</t>
+          <t>Santa María De Los Ángeles</t>
         </is>
       </c>
       <c r="C524">
@@ -7282,7 +7282,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C527">
@@ -7315,13 +7315,13 @@
         <v>13</v>
       </c>
       <c r="D529">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C530">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C531">
@@ -7354,13 +7354,13 @@
         <v>13</v>
       </c>
       <c r="D532">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C533">
@@ -7373,7 +7373,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C534">
@@ -7393,7 +7393,7 @@
         <v>13</v>
       </c>
       <c r="D535">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="536">
@@ -7516,7 +7516,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C545">
@@ -7529,7 +7529,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C546">
@@ -7594,7 +7594,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C551">
@@ -7607,7 +7607,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C552">
@@ -7646,7 +7646,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C555">
@@ -7898,7 +7898,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C574">
@@ -7924,7 +7924,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C576">
@@ -8665,14 +8665,14 @@
     <row r="633">
       <c r="B633" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C633">
         <v>13</v>
       </c>
       <c r="D633">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="634">
@@ -9060,7 +9060,7 @@
     <row r="663">
       <c r="B663" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C663">
@@ -9099,7 +9099,7 @@
     <row r="666">
       <c r="B666" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C666">
@@ -9112,7 +9112,7 @@
     <row r="667">
       <c r="B667" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C667">
@@ -9247,7 +9247,7 @@
     <row r="677">
       <c r="B677" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C677">
@@ -9260,7 +9260,7 @@
     <row r="678">
       <c r="B678" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C678">
@@ -9312,7 +9312,7 @@
     <row r="682">
       <c r="B682" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C682">
@@ -9403,7 +9403,7 @@
     <row r="689">
       <c r="B689" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C689">
@@ -9629,7 +9629,7 @@
     <row r="706">
       <c r="B706" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C706">
@@ -9681,7 +9681,7 @@
     <row r="710">
       <c r="B710" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C710">
@@ -9725,7 +9725,7 @@
       </c>
       <c r="B713" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C713">
@@ -9790,7 +9790,7 @@
     <row r="718">
       <c r="B718" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C718">
@@ -9829,7 +9829,7 @@
     <row r="721">
       <c r="B721" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C721">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C722">
@@ -9855,7 +9855,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C723">
@@ -9868,7 +9868,7 @@
     <row r="724">
       <c r="B724" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C724">
@@ -9881,7 +9881,7 @@
     <row r="725">
       <c r="B725" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C725">
@@ -9920,7 +9920,7 @@
     <row r="728">
       <c r="B728" t="inlineStr">
         <is>
-          <t>Mariscala de Juárez</t>
+          <t>Mariscala De Juárez</t>
         </is>
       </c>
       <c r="C728">
@@ -9946,7 +9946,7 @@
     <row r="730">
       <c r="B730" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C730">
@@ -9972,7 +9972,7 @@
     <row r="732">
       <c r="B732" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C732">
@@ -9985,7 +9985,7 @@
     <row r="733">
       <c r="B733" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C733">
@@ -9998,7 +9998,7 @@
     <row r="734">
       <c r="B734" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C734">
@@ -10011,7 +10011,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C735">
@@ -10024,7 +10024,7 @@
     <row r="736">
       <c r="B736" t="inlineStr">
         <is>
-          <t>Rojas de Cuauhtémoc</t>
+          <t>Rojas De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C736">
@@ -10232,7 +10232,7 @@
     <row r="752">
       <c r="B752" t="inlineStr">
         <is>
-          <t>San José del Peñasco</t>
+          <t>San José Del Peñasco</t>
         </is>
       </c>
       <c r="C752">
@@ -10440,7 +10440,7 @@
     <row r="768">
       <c r="B768" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C768">
@@ -10635,7 +10635,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>San Pedro y San Pablo Ayutla</t>
+          <t>San Pedro Y San Pablo Ayutla</t>
         </is>
       </c>
       <c r="C783">
@@ -10752,7 +10752,7 @@
     <row r="792">
       <c r="B792" t="inlineStr">
         <is>
-          <t>Santa María del Tule</t>
+          <t>Santa María Del Tule</t>
         </is>
       </c>
       <c r="C792">
@@ -10895,7 +10895,7 @@
     <row r="803">
       <c r="B803" t="inlineStr">
         <is>
-          <t>Santiago del Río</t>
+          <t>Santiago Del Río</t>
         </is>
       </c>
       <c r="C803">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C815">
@@ -11129,7 +11129,7 @@
     <row r="821">
       <c r="B821" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C821">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Tezoatlán de Segura y Luna</t>
+          <t>Tezoatlán De Segura Y Luna</t>
         </is>
       </c>
       <c r="C822">
@@ -11155,7 +11155,7 @@
     <row r="823">
       <c r="B823" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C823">
@@ -11168,7 +11168,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Tlalixtac de Cabrera</t>
+          <t>Tlalixtac De Cabrera</t>
         </is>
       </c>
       <c r="C824">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Villa de Tututepec de Melchor Ocampo</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C825">
@@ -11194,7 +11194,7 @@
     <row r="826">
       <c r="B826" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C826">
@@ -11207,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C827">
@@ -11220,7 +11220,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C828">
@@ -11420,7 +11420,7 @@
     <row r="843">
       <c r="B843" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C843">
@@ -11537,7 +11537,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C852">
@@ -11628,7 +11628,7 @@
     <row r="859">
       <c r="B859" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C859">
@@ -11745,7 +11745,7 @@
     <row r="868">
       <c r="B868" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C868">
@@ -11823,7 +11823,7 @@
     <row r="874">
       <c r="B874" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C874">
@@ -11953,7 +11953,7 @@
     <row r="884">
       <c r="B884" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C884">
@@ -11966,7 +11966,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>San Salvador el Verde</t>
+          <t>San Salvador El Verde</t>
         </is>
       </c>
       <c r="C885">
@@ -11992,7 +11992,7 @@
     <row r="887">
       <c r="B887" t="inlineStr">
         <is>
-          <t>Tecali de Herrera</t>
+          <t>Tecali De Herrera</t>
         </is>
       </c>
       <c r="C887">
@@ -12070,7 +12070,7 @@
     <row r="893">
       <c r="B893" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C893">
@@ -12096,7 +12096,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C895">
@@ -12122,7 +12122,7 @@
     <row r="897">
       <c r="B897" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C897">
@@ -12187,7 +12187,7 @@
     <row r="902">
       <c r="B902" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C902">
@@ -12278,7 +12278,7 @@
     <row r="909">
       <c r="B909" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C909">
@@ -12413,7 +12413,7 @@
       </c>
       <c r="B919" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C919">
@@ -12439,7 +12439,7 @@
     <row r="921">
       <c r="B921" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C921">
@@ -12491,7 +12491,7 @@
     <row r="925">
       <c r="B925" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C925">
@@ -12504,14 +12504,14 @@
     <row r="926">
       <c r="B926" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C926">
         <v>13</v>
       </c>
       <c r="D926">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="927">
@@ -12543,7 +12543,7 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C929">
@@ -12582,7 +12582,7 @@
     <row r="932">
       <c r="B932" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C932">
@@ -12709,7 +12709,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C941">
@@ -12761,7 +12761,7 @@
     <row r="945">
       <c r="B945" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C945">
@@ -12794,7 +12794,7 @@
         <v>13</v>
       </c>
       <c r="D947">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="948">
@@ -12852,7 +12852,7 @@
     <row r="952">
       <c r="B952" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C952">
@@ -12956,7 +12956,7 @@
     <row r="960">
       <c r="B960" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C960">
@@ -13047,7 +13047,7 @@
     <row r="967">
       <c r="B967" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C967">
@@ -13060,7 +13060,7 @@
     <row r="968">
       <c r="B968" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C968">
@@ -13073,7 +13073,7 @@
     <row r="969">
       <c r="B969" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C969">
@@ -13086,7 +13086,7 @@
     <row r="970">
       <c r="B970" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C970">
@@ -13629,7 +13629,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C1011">
@@ -13771,7 +13771,7 @@
         <v>13</v>
       </c>
       <c r="D1021">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="1022">
@@ -13855,7 +13855,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1028">
@@ -14133,7 +14133,7 @@
     <row r="1049">
       <c r="B1049" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1049">
@@ -14216,7 +14216,7 @@
       </c>
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Acuamanala de Miguel Hidalgo</t>
+          <t>Acuamanala De Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C1055">
@@ -14294,7 +14294,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Muñoz de Domingo Arenas</t>
+          <t>Muñoz De Domingo Arenas</t>
         </is>
       </c>
       <c r="C1061">
@@ -14307,7 +14307,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1062">
@@ -14333,7 +14333,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1064">
@@ -14533,7 +14533,7 @@
     <row r="1079">
       <c r="B1079" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1079">
@@ -14572,7 +14572,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1082">
@@ -14676,7 +14676,7 @@
     <row r="1090">
       <c r="B1090" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1090">
@@ -14715,7 +14715,7 @@
     <row r="1093">
       <c r="B1093" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1093">
@@ -14741,7 +14741,7 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1095">
@@ -14845,7 +14845,7 @@
     <row r="1103">
       <c r="B1103" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1103">
@@ -14858,7 +14858,7 @@
     <row r="1104">
       <c r="B1104" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1104">
@@ -14975,7 +14975,7 @@
     <row r="1113">
       <c r="B1113" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1113">
@@ -14988,7 +14988,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1114">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1117">
@@ -15040,7 +15040,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1118">
@@ -15183,7 +15183,7 @@
     <row r="1129">
       <c r="B1129" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1129">
@@ -15222,7 +15222,7 @@
     <row r="1132">
       <c r="B1132" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1132">
@@ -15248,7 +15248,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1134">
@@ -15287,7 +15287,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1137">
@@ -15391,7 +15391,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1145">
@@ -15404,7 +15404,7 @@
     <row r="1146">
       <c r="B1146" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1146">
@@ -15443,7 +15443,7 @@
     <row r="1149">
       <c r="B1149" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1149">
@@ -15534,7 +15534,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1156">
@@ -15755,7 +15755,7 @@
     <row r="1173">
       <c r="B1173" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1173">
@@ -15923,7 +15923,7 @@
         <v>13</v>
       </c>
       <c r="D1185">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="1186">
@@ -16077,7 +16077,7 @@
     <row r="1197">
       <c r="B1197" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1197">
@@ -16116,7 +16116,7 @@
     <row r="1200">
       <c r="B1200" t="inlineStr">
         <is>
-          <t>El Plateado de Joaquín Amaro</t>
+          <t>El Plateado De Joaquín Amaro</t>
         </is>
       </c>
       <c r="C1200">
@@ -16246,7 +16246,7 @@
     <row r="1210">
       <c r="B1210" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1210">
@@ -16324,7 +16324,7 @@
     <row r="1216">
       <c r="B1216" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1216">
@@ -16344,7 +16344,7 @@
         <v>13</v>
       </c>
       <c r="D1217">
-        <v>0.0009323674962346697</v>
+        <v>0.0009323674962346696</v>
       </c>
     </row>
     <row r="1218">
@@ -16376,7 +16376,7 @@
     <row r="1220">
       <c r="B1220" t="inlineStr">
         <is>
-          <t>Moyahua de Estrada</t>
+          <t>Moyahua De Estrada</t>
         </is>
       </c>
       <c r="C1220">
@@ -16389,7 +16389,7 @@
     <row r="1221">
       <c r="B1221" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1221">
@@ -16402,7 +16402,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1222">
@@ -16545,7 +16545,7 @@
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1233">
@@ -16558,7 +16558,7 @@
     <row r="1234">
       <c r="B1234" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1234">
@@ -16597,7 +16597,7 @@
     <row r="1237">
       <c r="B1237" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1237">
@@ -16696,41 +16696,6 @@
       </c>
       <c r="D1244">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1246">
-      <c r="A1246" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 800,811</t>
-        </is>
-      </c>
-    </row>
-    <row r="1247">
-      <c r="A1247" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1248">
-      <c r="A1248" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1249">
-      <c r="A1249" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1250">
-      <c r="A1250" t="inlineStr">
-        <is>
-          <t>Abril de 2020</t>
-        </is>
       </c>
     </row>
   </sheetData>
